--- a/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
+++ b/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5BF0DE661B583A11594658747A5BFD12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826F7EA4-D44A-404A-B1BE-8F5B1742932B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +464,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
+++ b/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e5ab4397a9452b8/Documentos/DATOS_VIAJES_MOTOS/Ciclo_Final2024/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5BF0DE661B583A11594658747A5BFD12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{826F7EA4-D44A-404A-B1BE-8F5B1742932B}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Variable</t>
   </si>
@@ -95,13 +89,19 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>t_acel_pos</t>
+  </si>
+  <si>
+    <t>t_acel_neg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +112,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,19 +164,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,21 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,252 +466,349 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>13221.150089999999</v>
-      </c>
-      <c r="C2">
-        <v>26507.692190000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13221.15009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>26507.69219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>3587</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>4386</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>13.265370000000001</v>
-      </c>
-      <c r="C4">
-        <v>21.752379999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13.26537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>21.75238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>58.080550000000002</v>
-      </c>
-      <c r="C5">
+        <v>58.08055</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>108.65553</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>35.672960000000003</v>
-      </c>
-      <c r="C6">
-        <v>65.203950000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35.67296</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>65.20395000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.38429999999999997</v>
-      </c>
-      <c r="C7">
+        <v>0.3843</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>0.36801</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.2801499999999999</v>
-      </c>
-      <c r="C8">
-        <v>2.2801499999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2.28015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2.28015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>942</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>1040</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>1982</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>2551</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.17102999999999999</v>
-      </c>
-      <c r="C12">
-        <v>0.15837000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.17103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>0.15837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.19349</v>
-      </c>
-      <c r="C13">
-        <v>-0.20910999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-0.34376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>-0.33333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>-1.2484900000000001</v>
-      </c>
-      <c r="C14">
-        <v>-1.4754400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>-1.24849</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>-1.47544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>34.290489999999998</v>
-      </c>
-      <c r="C15">
-        <v>28.066579999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.29049</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>28.06658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>65.737390000000005</v>
-      </c>
-      <c r="C16">
-        <v>71.956220000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>65.73739</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>71.95622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>13.38166</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>16.18787</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>52.355730000000001</v>
-      </c>
-      <c r="C18">
-        <v>55.768349999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52.35573</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>55.76835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>403.08562999999998</v>
-      </c>
-      <c r="C19">
-        <v>490.83580999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>403.08563</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>490.83581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>3.049E-2</v>
-      </c>
-      <c r="C20">
-        <v>1.8519999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.03049</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0.01852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>923.59981000000005</v>
-      </c>
-      <c r="C21">
+        <v>923.59981</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
         <v>1170.17536</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>6.9860000000000005E-2</v>
-      </c>
-      <c r="C22">
-        <v>4.4139999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.06986000000000001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0.04414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>875.13644999999997</v>
-      </c>
-      <c r="C23">
-        <v>1122.0105599999999</v>
+        <v>875.13645</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>1122.01056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>30.88932</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>34.10853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>34.84806</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>37.8477</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
+++ b/Ciclo_Final2024/parametros_ciclos_AMVA2024.xlsx
@@ -1,126 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Paremetros_AMVA2024</t>
-  </si>
-  <si>
-    <t>Paremetros_AMVA2024full</t>
-  </si>
-  <si>
-    <t>distance_traveled</t>
-  </si>
-  <si>
-    <t>total_time</t>
-  </si>
-  <si>
-    <t>speed_mean</t>
-  </si>
-  <si>
-    <t>speed_max</t>
-  </si>
-  <si>
-    <t>speed_mean_sup</t>
-  </si>
-  <si>
-    <t>acel_pos_mean</t>
-  </si>
-  <si>
-    <t>acel_pos_max</t>
-  </si>
-  <si>
-    <t>n_ia_pos</t>
-  </si>
-  <si>
-    <t>n_ia_neg</t>
-  </si>
-  <si>
-    <t>n_ia_t</t>
-  </si>
-  <si>
-    <t>RPA</t>
-  </si>
-  <si>
-    <t>acel_neg_mean</t>
-  </si>
-  <si>
-    <t>acel_neg_max</t>
-  </si>
-  <si>
-    <t>time_ralenti</t>
-  </si>
-  <si>
-    <t>time_mov</t>
-  </si>
-  <si>
-    <t>t_crucero</t>
-  </si>
-  <si>
-    <t>t_acel</t>
-  </si>
-  <si>
-    <t>ABS_Der_Acel</t>
-  </si>
-  <si>
-    <t>ABS_Der_Acel/distance</t>
-  </si>
-  <si>
-    <t>ABS_Acel</t>
-  </si>
-  <si>
-    <t>ABS_Acel/distance</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>t_acel_pos</t>
-  </si>
-  <si>
-    <t>t_acel_neg</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,364 +420,474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Paremetros_AMVA2024</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paremetros_AMVA2024full</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>distance_traveled</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13221.15009</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>distance_traveled</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>26507.69219</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total_time</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>3587</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>total_time</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>4386</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>speed_mean</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>13.26537</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>speed_mean</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>21.75238</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>speed_max</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>58.08055</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>speed_max</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>108.65553</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>speed_mean_sup</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>35.67296</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>speed_mean_sup</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>65.20395000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>acel_pos_mean</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>0.3843</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>acel_pos_mean</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.36801</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>acel_pos_max</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>2.28015</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>acel_pos_max</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>2.28015</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>n_ia_pos</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>942</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n_ia_pos</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>n_ia_neg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1040</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>n_ia_neg</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1326</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>n_ia_t</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>1982</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>n_ia_t</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>2551</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RPA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0.17103</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RPA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.15837</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>acel_neg_mean</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-0.34376</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>acel_neg_mean</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>-0.33333</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>acel_neg_max</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-1.24849</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>acel_neg_max</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>-1.47544</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>time_ralenti</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>34.29049</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>time_ralenti</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>28.06658</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>time_mov</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>65.73739</v>
       </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>time_mov</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>71.95622</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t_crucero</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>13.38166</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>t_crucero</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>16.18787</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t_acel</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>52.35573</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>t_acel</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>55.76835</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ABS_Der_Acel</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>403.08563</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ABS_Der_Acel</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>490.83581</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ABS_Der_Acel/distance</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>0.03049</v>
       </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ABS_Der_Acel/distance</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.01852</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ABS_Acel</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>923.59981</v>
       </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ABS_Acel</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>1170.17536</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ABS_Acel/distance</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>0.06986000000000001</v>
       </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ABS_Acel/distance</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.04414</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>875.13645</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1122.01056</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t_acel_pos</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>30.88932</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>t_acel_pos</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>34.10853</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t_acel_neg</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>34.84806</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>t_acel_neg</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>37.8477</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>